--- a/Final report.xlsx
+++ b/Final report.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheem\Assessment\UCLA-Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="168">
   <si>
     <t>ID State</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>State Name</t>
+  </si>
+  <si>
+    <t>Prime Factor (2020)</t>
   </si>
 </sst>
 </file>
@@ -4502,7 +4505,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:J57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -5051,6 +5054,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13406,10 +13410,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15163,10 +15168,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15177,9 +15183,10 @@
     <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>166</v>
       </c>
@@ -15207,8 +15214,11 @@
       <c r="I1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -15250,8 +15260,12 @@
         <v>4893186
  (0.35 %)</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I5)</f>
+        <v>2;3;41;19891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -15293,8 +15307,12 @@
         <v>736990
  (-0.01 %)</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I6)</f>
+        <v>2;5;73699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -15336,8 +15354,12 @@
         <v>7174064
  (1.76 %)</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I7)</f>
+        <v>2;2;2;2;448379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -15379,8 +15401,12 @@
         <v>3011873
  (0.42 %)</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I8)</f>
+        <v>17;23;7703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -15422,8 +15448,12 @@
         <v>39346023
  (0.16 %)</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I9)</f>
+        <v>3;587;22343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -15465,8 +15495,12 @@
         <v>5684926
  (1.33 %)</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I10)</f>
+        <v>2;13;218651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -15508,8 +15542,12 @@
         <v>3570549
  (-0.13 %)</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I11)</f>
+        <v>3;31;38393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -15551,8 +15589,12 @@
         <v>967679
  (1.09 %)</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I12)</f>
+        <v>23;42073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -15594,8 +15636,12 @@
         <v>701974
  (1.34 %)</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I13)</f>
+        <v>2;7;7;13;19;29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -15637,8 +15683,12 @@
         <v>21216924
  (1.51 %)</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I14)</f>
+        <v>2;2;3;3;3;196453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -15680,8 +15730,12 @@
         <v>10516579
  (1.08 %)</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I15)</f>
+        <v>47;223757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -15723,8 +15777,12 @@
         <v>1420074
  (-0.14 %)</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I16)</f>
+        <v>2;3;3;78893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -15766,8 +15824,12 @@
         <v>1754367
  (2.13 %)</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I17)</f>
+        <v>3;584789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -15809,8 +15871,12 @@
         <v>12716164
  (-0.43 %)</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I18)</f>
+        <v>2;2;349;9109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -15852,8 +15918,12 @@
         <v>6696893
  (0.47 %)</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I19)</f>
+        <v>7;956699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -15895,8 +15965,12 @@
         <v>3150011
  (0.33 %)</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I20)</f>
+        <v>23;151;907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -15938,8 +16012,12 @@
         <v>2912619
  (0.07 %)</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I21)</f>
+        <v>3;97;10009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -15981,8 +16059,12 @@
         <v>4461952
  (0.29 %)</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I22)</f>
+        <v>2;2;2;2;2;2;2;11;3169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -16024,8 +16106,12 @@
         <v>4664616
  (0.01 %)</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I23)</f>
+        <v>2;2;2;3;11;17669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -16067,8 +16153,12 @@
         <v>1340825
  (0.4 %)</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I24)</f>
+        <v>5;5;53633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -16110,8 +16200,12 @@
         <v>6037624
  (0.31 %)</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I25)</f>
+        <v>2;2;2;754703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -16153,8 +16247,12 @@
         <v>6873003
  (0.33 %)</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I26)</f>
+        <v>3;3;19;40193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -16196,8 +16294,12 @@
         <v>9973907
  (0.09 %)</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I27)</f>
+        <v>919;10853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -16239,8 +16341,12 @@
         <v>5600166
  (0.66 %)</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I28)</f>
+        <v>2;3;11;13;61;107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -16282,8 +16388,12 @@
         <v>2981835
  (-0.09 %)</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I29)</f>
+        <v>3;3;5;23;43;67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -16325,8 +16435,12 @@
         <v>6124160
  (0.32 %)</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I30)</f>
+        <v>2;2;2;2;2;2;2;5;7;1367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -16368,8 +16482,12 @@
         <v>1061705
  (1.05 %)</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I31)</f>
+        <v>5;59;59;61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -16411,8 +16529,12 @@
         <v>1923826
  (0.48 %)</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I32)</f>
+        <v>2;19;50627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -16454,8 +16576,12 @@
         <v>3030281
  (1.95 %)</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I33)</f>
+        <v>31;239;409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -16497,8 +16623,12 @@
         <v>1355244
  (0.53 %)</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I34)</f>
+        <v>2;2;3;11;10267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -16540,8 +16670,12 @@
         <v>8885418
  (0.08 %)</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I35)</f>
+        <v>2;3;1480903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -16583,8 +16717,12 @@
         <v>2097021
  (0.22 %)</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I36)</f>
+        <v>3;699007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -16626,8 +16764,12 @@
         <v>19514849
  (-0.29 %)</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I37)</f>
+        <v>163;119723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -16669,8 +16811,12 @@
         <v>10386227
  (1.18 %)</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I38)</f>
+        <v>10386227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -16712,8 +16858,12 @@
         <v>760394
  (0.49 %)</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I39)</f>
+        <v>2;380197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -16755,8 +16905,12 @@
         <v>11675275
  (0.17 %)</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I40)</f>
+        <v>5;5;179;2609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -16798,8 +16952,12 @@
         <v>3949342
  (0.42 %)</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I41)</f>
+        <v>2;59;33469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -16841,8 +16999,12 @@
         <v>4176346
  (1.13 %)</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I42)</f>
+        <v>2;227;9199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -16884,8 +17046,12 @@
         <v>12794885
  (0.03 %)</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I43)</f>
+        <v>5;19;134683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -16927,8 +17093,12 @@
         <v>3255642
  (-1.89 %)</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I44)</f>
+        <v>2;3;3;13;13913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -16970,8 +17140,12 @@
         <v>1057798
  (0.05 %)</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I45)</f>
+        <v>2;7;75557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -17013,8 +17187,12 @@
         <v>5091517
  (1.41 %)</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I46)</f>
+        <v>17;299501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -17056,8 +17234,12 @@
         <v>879336
  (1 %)</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I47)</f>
+        <v>2;2;2;3;3;3;3;23;59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -17099,8 +17281,12 @@
         <v>6772268
  (0.94 %)</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I48)</f>
+        <v>2;2;1693067</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -17142,8 +17328,12 @@
         <v>28635442
  (1.33 %)</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I49)</f>
+        <v>2;11;103;12637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -17185,8 +17375,12 @@
         <v>3151239
  (1.76 %)</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I50)</f>
+        <v>3;7;7;13;17;97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -17228,8 +17422,12 @@
         <v>624340
  (0 %)</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I51)</f>
+        <v>2;2;5;19;31;53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -17271,8 +17469,12 @@
         <v>8509358
  (0.65 %)</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I52)</f>
+        <v>2;11;13;29753</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -17314,8 +17516,12 @@
         <v>7512465
  (1.46 %)</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I53)</f>
+        <v>3;5;500831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -17357,8 +17563,12 @@
         <v>1807426
  (-0.54 %)</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I54)</f>
+        <v>2;211;4283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -17400,8 +17610,12 @@
         <v>5806975
  (0.28 %)</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I55)</f>
+        <v>5;5;109;2131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -17443,6 +17657,10 @@
         <v>581348
  (0.06 %)</v>
       </c>
+      <c r="J53" t="str">
+        <f>CALCULATE_PRIME_FACTORS(pivot!I56)</f>
+        <v>2;2;23;71;89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
